--- a/Improgress/2. Artifact and Deliverable/Test case/TE_FunctionTest/TE_Testcase_Module3_ver1.3/TE_AddDepartment_ver1.3.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/TE_FunctionTest/TE_Testcase_Module3_ver1.3/TE_AddDepartment_ver1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\TE_Testcase_Module3_ver1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\TE_FunctionTest\TE_Testcase_Module3_ver1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E93440-AD40-462E-89EA-D571F0A28559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91EFB8-4AF7-41E6-9FAB-38CC34677F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>TC-BDS-TPB-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị giao diện Phòng ban </t>
-  </si>
-  <si>
     <t>TC-BDS-TPB-2</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t xml:space="preserve">BDS Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Display Department interface</t>
   </si>
 </sst>
 </file>
@@ -1340,6 +1340,30 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1361,30 +1385,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,15 +1445,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,36 +1494,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1884,31 +1884,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
@@ -1963,21 +1963,21 @@
         <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1987,21 +1987,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
@@ -2010,54 +2010,54 @@
       <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2070,7 +2070,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -2121,14 +2121,14 @@
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="90"/>
       <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="91"/>
       <c r="H2" s="92"/>
@@ -2162,7 +2162,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="83"/>
       <c r="H4" s="84"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>34</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>34</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>34</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>35</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>35</v>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>35</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="37" t="s">
         <v>35</v>
@@ -2357,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>33</v>
@@ -2379,7 +2379,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>33</v>
@@ -2401,7 +2401,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="37" t="s">
         <v>33</v>
@@ -2423,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>33</v>
@@ -2445,7 +2445,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>33</v>
@@ -2467,7 +2467,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="37" t="s">
         <v>33</v>
@@ -2489,7 +2489,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="37" t="s">
         <v>33</v>
@@ -2505,13 +2505,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>33</v>
@@ -2611,9 +2611,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2631,17 +2631,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
+      <c r="A1" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2676,2181 +2676,2105 @@
         <v>4</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112">
+      <c r="A4" s="103">
         <v>1</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="105" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="114" t="s">
-        <v>106</v>
       </c>
       <c r="F4" s="52">
         <v>1</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="101" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J4" s="109" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="49">
         <v>2</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="49">
         <v>3</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="49">
         <v>4</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="59"/>
-      <c r="J7" s="99"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="49">
         <v>5</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="59"/>
-      <c r="J8" s="99"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="49">
         <v>6</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="110"/>
+    </row>
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
+        <v>2</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="99"/>
-    </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106">
-        <v>2</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="110" t="s">
-        <v>106</v>
+      <c r="E10" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F10" s="49">
         <v>1</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J10" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="49">
         <v>2</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="49">
         <v>3</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="49">
         <v>4</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="59"/>
-      <c r="J13" s="99"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="49">
         <v>5</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I14" s="59"/>
-      <c r="J14" s="99"/>
+      <c r="J14" s="110"/>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="49">
         <v>6</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="99"/>
+        <v>115</v>
+      </c>
+      <c r="J15" s="110"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
       <c r="F16" s="49">
         <v>7</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="59"/>
-      <c r="J16" s="99"/>
+      <c r="J16" s="110"/>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="49">
         <v>8</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="99"/>
+        <v>141</v>
+      </c>
+      <c r="J17" s="110"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="49">
         <v>9</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="99"/>
+        <v>112</v>
+      </c>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
+      <c r="A19" s="99">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="110" t="s">
-        <v>106</v>
+      <c r="C19" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F19" s="49">
         <v>1</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J19" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="49">
         <v>2</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J20" s="110"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="49">
         <v>3</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J21" s="110"/>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="49">
         <v>4</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="99"/>
+      <c r="J22" s="110"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="49">
         <v>5</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="59"/>
-      <c r="J23" s="99"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="49">
         <v>6</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="99"/>
+        <v>115</v>
+      </c>
+      <c r="J24" s="110"/>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
       <c r="F25" s="49">
         <v>7</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="59"/>
-      <c r="J25" s="99"/>
+      <c r="J25" s="110"/>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="49">
         <v>8</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="99"/>
+        <v>142</v>
+      </c>
+      <c r="J26" s="110"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
       <c r="F27" s="49">
         <v>9</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="99"/>
+        <v>112</v>
+      </c>
+      <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106">
+      <c r="A28" s="99">
         <v>4</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>106</v>
+      <c r="C28" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F28" s="49">
         <v>1</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J28" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J28" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="49">
         <v>2</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J29" s="110"/>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="49">
         <v>3</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J30" s="110"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="49">
         <v>4</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="59"/>
-      <c r="J31" s="99"/>
+      <c r="J31" s="110"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="49">
         <v>5</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I32" s="59"/>
-      <c r="J32" s="99"/>
+      <c r="J32" s="110"/>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="49">
         <v>6</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="99"/>
+        <v>120</v>
+      </c>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="49">
         <v>7</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="59"/>
-      <c r="J34" s="99"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="49">
         <v>8</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="99"/>
+        <v>94</v>
+      </c>
+      <c r="J35" s="110"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="49">
         <v>9</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="J36" s="99"/>
+        <v>112</v>
+      </c>
+      <c r="J36" s="110"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="106">
+      <c r="A37" s="99">
         <v>5</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="110" t="s">
-        <v>106</v>
+      <c r="C37" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F37" s="49">
         <v>1</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J37" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
       <c r="F38" s="49">
         <v>2</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J38" s="110"/>
     </row>
     <row r="39" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
       <c r="F39" s="49">
         <v>3</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J39" s="110"/>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="49">
         <v>4</v>
       </c>
       <c r="G40" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="59"/>
-      <c r="J40" s="99"/>
+      <c r="J40" s="110"/>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="49">
         <v>5</v>
       </c>
       <c r="G41" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I41" s="59"/>
-      <c r="J41" s="99"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="49">
         <v>6</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" s="99"/>
+        <v>115</v>
+      </c>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="49">
         <v>7</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I43" s="59"/>
-      <c r="J43" s="99"/>
+      <c r="J43" s="110"/>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="49">
         <v>8</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="110"/>
+    </row>
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="99">
+        <v>6</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="J44" s="99"/>
-    </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="106">
-        <v>6</v>
-      </c>
-      <c r="B45" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="110" t="s">
-        <v>106</v>
+      <c r="E45" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F45" s="49">
         <v>1</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" s="23"/>
       <c r="I45" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J45" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J45" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="49">
         <v>2</v>
       </c>
       <c r="G46" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="49">
         <v>3</v>
       </c>
       <c r="G47" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J47" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
       <c r="F48" s="49">
         <v>4</v>
       </c>
       <c r="G48" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="59"/>
-      <c r="J48" s="99"/>
+      <c r="J48" s="110"/>
     </row>
     <row r="49" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
       <c r="F49" s="49">
         <v>5</v>
       </c>
       <c r="G49" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H49" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I49" s="59"/>
-      <c r="J49" s="99"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="49">
         <v>6</v>
       </c>
       <c r="G50" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="J50" s="99"/>
+        <v>126</v>
+      </c>
+      <c r="J50" s="110"/>
     </row>
     <row r="51" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="106"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="49">
         <v>7</v>
       </c>
       <c r="G51" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H51" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I51" s="59"/>
-      <c r="J51" s="99"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="106"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
       <c r="F52" s="49">
         <v>8</v>
       </c>
       <c r="G52" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="J52" s="99"/>
+        <v>142</v>
+      </c>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="106"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="49">
         <v>9</v>
       </c>
       <c r="G53" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="110"/>
+    </row>
+    <row r="54" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="99">
+        <v>7</v>
+      </c>
+      <c r="B54" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="J53" s="99"/>
-    </row>
-    <row r="54" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="106">
-        <v>7</v>
-      </c>
-      <c r="B54" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="110" t="s">
-        <v>106</v>
+      <c r="E54" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F54" s="49">
         <v>1</v>
       </c>
       <c r="G54" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J54" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J54" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
       <c r="F55" s="49">
         <v>2</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J55" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J55" s="110"/>
     </row>
     <row r="56" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="49">
         <v>3</v>
       </c>
       <c r="G56" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J56" s="110"/>
     </row>
     <row r="57" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="106"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
       <c r="F57" s="49">
         <v>4</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="59"/>
-      <c r="J57" s="99"/>
+      <c r="J57" s="110"/>
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="106"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
       <c r="F58" s="49">
         <v>5</v>
       </c>
       <c r="G58" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H58" s="51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I58" s="59"/>
-      <c r="J58" s="99"/>
+      <c r="J58" s="110"/>
     </row>
     <row r="59" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="107"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
       <c r="F59" s="54">
         <v>6</v>
       </c>
       <c r="G59" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H59" s="55"/>
       <c r="I59" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" s="111"/>
+    </row>
+    <row r="60" spans="1:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="112"/>
+    </row>
+    <row r="61" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="103">
+        <v>8</v>
+      </c>
+      <c r="B61" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="J59" s="100"/>
-    </row>
-    <row r="60" spans="1:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
-    </row>
-    <row r="61" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="112">
-        <v>8</v>
-      </c>
-      <c r="B61" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="114" t="s">
-        <v>106</v>
+      <c r="E61" s="105" t="s">
+        <v>105</v>
       </c>
       <c r="F61" s="52">
         <v>1</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" s="53"/>
       <c r="I61" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="J61" s="101" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J61" s="109" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
       <c r="F62" s="49">
         <v>2</v>
       </c>
       <c r="G62" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J62" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J62" s="110"/>
     </row>
     <row r="63" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
       <c r="F63" s="49">
         <v>3</v>
       </c>
       <c r="G63" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J63" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J63" s="110"/>
     </row>
     <row r="64" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
       <c r="F64" s="49">
         <v>4</v>
       </c>
       <c r="G64" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="59"/>
-      <c r="J64" s="99"/>
+      <c r="J64" s="110"/>
     </row>
     <row r="65" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="110"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="49">
         <v>5</v>
       </c>
       <c r="G65" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I65" s="59"/>
-      <c r="J65" s="99"/>
+      <c r="J65" s="110"/>
     </row>
     <row r="66" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
       <c r="F66" s="49">
         <v>6</v>
       </c>
       <c r="G66" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="J66" s="99"/>
+        <v>112</v>
+      </c>
+      <c r="J66" s="110"/>
     </row>
     <row r="67" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106">
+      <c r="A67" s="99">
         <v>9</v>
       </c>
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="110" t="s">
-        <v>106</v>
+      <c r="C67" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F67" s="49">
         <v>1</v>
       </c>
       <c r="G67" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H67" s="23"/>
       <c r="I67" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J67" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J67" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
       <c r="F68" s="49">
         <v>2</v>
       </c>
       <c r="G68" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H68" s="23"/>
       <c r="I68" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J68" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J68" s="110"/>
     </row>
     <row r="69" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="49">
         <v>3</v>
       </c>
       <c r="G69" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J69" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J69" s="110"/>
     </row>
     <row r="70" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
       <c r="F70" s="49">
         <v>4</v>
       </c>
       <c r="G70" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="J70" s="99"/>
+        <v>146</v>
+      </c>
+      <c r="J70" s="110"/>
     </row>
     <row r="71" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="106">
+      <c r="A71" s="99">
         <v>10</v>
       </c>
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" s="110" t="s">
-        <v>106</v>
+      <c r="C71" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F71" s="49">
         <v>1</v>
       </c>
       <c r="G71" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J71" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J71" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
       <c r="F72" s="49">
         <v>2</v>
       </c>
       <c r="G72" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J72" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J72" s="110"/>
     </row>
     <row r="73" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="110"/>
+      <c r="A73" s="99"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
       <c r="F73" s="49">
         <v>3</v>
       </c>
       <c r="G73" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J73" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J73" s="110"/>
     </row>
     <row r="74" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="108"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
       <c r="F74" s="49">
         <v>4</v>
       </c>
       <c r="G74" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="J74" s="99"/>
+        <v>138</v>
+      </c>
+      <c r="J74" s="110"/>
     </row>
     <row r="75" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="106">
+      <c r="A75" s="99">
         <v>11</v>
       </c>
-      <c r="B75" s="108" t="s">
+      <c r="B75" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75" s="110" t="s">
-        <v>106</v>
+      <c r="C75" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F75" s="49">
         <v>1</v>
       </c>
       <c r="G75" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J75" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J75" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="110"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
       <c r="F76" s="49">
         <v>2</v>
       </c>
       <c r="G76" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J76" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J76" s="110"/>
     </row>
     <row r="77" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
-      <c r="B77" s="108"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="110"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="101"/>
       <c r="F77" s="49">
         <v>3</v>
       </c>
       <c r="G77" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J77" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J77" s="110"/>
     </row>
     <row r="78" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="106"/>
-      <c r="B78" s="108"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="110"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
       <c r="F78" s="49">
         <v>4</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="59"/>
-      <c r="J78" s="99"/>
+      <c r="J78" s="110"/>
     </row>
     <row r="79" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="106"/>
-      <c r="B79" s="108"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="110"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
       <c r="F79" s="49">
         <v>5</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I79" s="59"/>
-      <c r="J79" s="99"/>
+      <c r="J79" s="110"/>
     </row>
     <row r="80" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="106"/>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="110"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="49">
         <v>6</v>
       </c>
       <c r="G80" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="J80" s="99"/>
+        <v>115</v>
+      </c>
+      <c r="J80" s="110"/>
     </row>
     <row r="81" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="106">
+      <c r="A81" s="99">
         <v>12</v>
       </c>
-      <c r="B81" s="108" t="s">
+      <c r="B81" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="110" t="s">
-        <v>106</v>
+      <c r="C81" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F81" s="49">
         <v>1</v>
       </c>
       <c r="G81" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J81" s="103" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J81" s="113" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="110"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
       <c r="F82" s="49">
         <v>2</v>
       </c>
       <c r="G82" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="J82" s="104"/>
+        <v>131</v>
+      </c>
+      <c r="J82" s="114"/>
     </row>
     <row r="83" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="110"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
       <c r="F83" s="49">
         <v>3</v>
       </c>
       <c r="G83" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="J83" s="104"/>
+        <v>132</v>
+      </c>
+      <c r="J83" s="114"/>
     </row>
     <row r="84" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
-      <c r="B84" s="108"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="110"/>
-      <c r="E84" s="110"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
       <c r="F84" s="49">
         <v>4</v>
       </c>
       <c r="G84" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="59"/>
-      <c r="J84" s="104"/>
+      <c r="J84" s="114"/>
     </row>
     <row r="85" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
-      <c r="B85" s="108"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="110"/>
-      <c r="E85" s="110"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
       <c r="F85" s="49">
         <v>5</v>
       </c>
       <c r="G85" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I85" s="59"/>
-      <c r="J85" s="104"/>
+      <c r="J85" s="114"/>
     </row>
     <row r="86" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
-      <c r="B86" s="108"/>
-      <c r="C86" s="108"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="110"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="100"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
       <c r="F86" s="49">
         <v>6</v>
       </c>
       <c r="G86" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="J86" s="104"/>
+        <v>133</v>
+      </c>
+      <c r="J86" s="114"/>
     </row>
     <row r="87" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
-      <c r="B87" s="108"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="110"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
       <c r="F87" s="49">
         <v>6</v>
       </c>
       <c r="G87" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="J87" s="105"/>
+        <v>153</v>
+      </c>
+      <c r="J87" s="115"/>
     </row>
     <row r="88" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="106">
+      <c r="A88" s="99">
         <v>13</v>
       </c>
-      <c r="B88" s="108" t="s">
+      <c r="B88" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="110" t="s">
-        <v>106</v>
+      <c r="C88" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F88" s="49">
         <v>1</v>
       </c>
       <c r="G88" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J88" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
-      <c r="B89" s="108"/>
-      <c r="C89" s="108"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="110"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
       <c r="F89" s="49">
         <v>2</v>
       </c>
       <c r="G89" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J89" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J89" s="110"/>
     </row>
     <row r="90" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="108"/>
-      <c r="C90" s="108"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="110"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
       <c r="F90" s="49">
         <v>3</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J90" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J90" s="110"/>
     </row>
     <row r="91" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="110"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
       <c r="F91" s="49">
         <v>4</v>
       </c>
       <c r="G91" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="59"/>
-      <c r="J91" s="99"/>
+      <c r="J91" s="110"/>
     </row>
     <row r="92" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="106"/>
-      <c r="B92" s="108"/>
-      <c r="C92" s="108"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="110"/>
+      <c r="A92" s="99"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
       <c r="F92" s="49">
         <v>5</v>
       </c>
       <c r="G92" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I92" s="59"/>
-      <c r="J92" s="99"/>
+      <c r="J92" s="110"/>
     </row>
     <row r="93" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="106"/>
-      <c r="B93" s="108"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="110"/>
-      <c r="E93" s="110"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
       <c r="F93" s="49">
         <v>6</v>
       </c>
       <c r="G93" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H93" s="23"/>
       <c r="I93" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="J93" s="99"/>
+        <v>112</v>
+      </c>
+      <c r="J93" s="110"/>
     </row>
     <row r="94" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="106">
+      <c r="A94" s="99">
         <v>14</v>
       </c>
-      <c r="B94" s="108" t="s">
+      <c r="B94" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="D94" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="110" t="s">
-        <v>106</v>
+      <c r="C94" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F94" s="49">
         <v>1</v>
       </c>
       <c r="G94" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H94" s="23"/>
       <c r="I94" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J94" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J94" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
-      <c r="B95" s="108"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="110"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="100"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="101"/>
       <c r="F95" s="49">
         <v>2</v>
       </c>
       <c r="G95" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J95" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J95" s="110"/>
     </row>
     <row r="96" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
-      <c r="B96" s="108"/>
-      <c r="C96" s="108"/>
-      <c r="D96" s="110"/>
-      <c r="E96" s="110"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="100"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
       <c r="F96" s="49">
         <v>3</v>
       </c>
       <c r="G96" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H96" s="23"/>
       <c r="I96" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J96" s="99"/>
+        <v>108</v>
+      </c>
+      <c r="J96" s="110"/>
     </row>
     <row r="97" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="106"/>
-      <c r="B97" s="108"/>
-      <c r="C97" s="108"/>
-      <c r="D97" s="110"/>
-      <c r="E97" s="110"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="100"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
       <c r="F97" s="49">
         <v>4</v>
       </c>
       <c r="G97" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H97" s="23"/>
       <c r="I97" s="59"/>
-      <c r="J97" s="99"/>
+      <c r="J97" s="110"/>
     </row>
     <row r="98" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
-      <c r="B98" s="108"/>
-      <c r="C98" s="108"/>
-      <c r="D98" s="110"/>
-      <c r="E98" s="110"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
       <c r="F98" s="49">
         <v>5</v>
       </c>
       <c r="G98" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I98" s="59"/>
-      <c r="J98" s="99"/>
+      <c r="J98" s="110"/>
     </row>
     <row r="99" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
-      <c r="B99" s="108"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="100"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
       <c r="F99" s="49">
         <v>6</v>
       </c>
       <c r="G99" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="J99" s="99"/>
+        <v>115</v>
+      </c>
+      <c r="J99" s="110"/>
     </row>
     <row r="100" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="110"/>
+      <c r="A100" s="99"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
       <c r="F100" s="49">
         <v>7</v>
       </c>
       <c r="G100" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H100" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I100" s="59"/>
-      <c r="J100" s="99"/>
+      <c r="J100" s="110"/>
     </row>
     <row r="101" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="106"/>
-      <c r="B101" s="108"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="110"/>
-      <c r="E101" s="110"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
       <c r="F101" s="49">
         <v>8</v>
       </c>
       <c r="G101" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H101" s="23"/>
       <c r="I101" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="J101" s="99"/>
+        <v>123</v>
+      </c>
+      <c r="J101" s="110"/>
     </row>
     <row r="102" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="106">
+      <c r="A102" s="99">
         <v>15</v>
       </c>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C102" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" s="110" t="s">
-        <v>106</v>
+      <c r="D102" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F102" s="49">
         <v>1</v>
       </c>
       <c r="G102" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J102" s="99" t="s">
-        <v>90</v>
+        <v>107</v>
+      </c>
+      <c r="J102" s="110" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="110"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="100"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
       <c r="F103" s="49">
         <v>2</v>
       </c>
       <c r="G103" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J103" s="99"/>
+        <v>109</v>
+      </c>
+      <c r="J103" s="110"/>
     </row>
     <row r="104" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="108"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="110"/>
+      <c r="A104" s="99"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="100"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
       <c r="F104" s="49">
         <v>3</v>
       </c>
       <c r="G104" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="J104" s="99"/>
+        <v>156</v>
+      </c>
+      <c r="J104" s="110"/>
     </row>
     <row r="105" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="106"/>
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
       <c r="F105" s="49">
         <v>4</v>
       </c>
       <c r="G105" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="59"/>
-      <c r="J105" s="99"/>
+      <c r="J105" s="110"/>
     </row>
     <row r="106" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="106"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="110"/>
+      <c r="A106" s="99"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="100"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
       <c r="F106" s="49">
         <v>5</v>
       </c>
       <c r="G106" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I106" s="59"/>
-      <c r="J106" s="99"/>
+      <c r="J106" s="110"/>
     </row>
     <row r="107" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="106"/>
-      <c r="B107" s="108"/>
-      <c r="C107" s="108"/>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
+      <c r="A107" s="99"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
       <c r="F107" s="49">
         <v>6</v>
       </c>
       <c r="G107" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="J107" s="99"/>
+        <v>115</v>
+      </c>
+      <c r="J107" s="110"/>
     </row>
     <row r="108" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="106"/>
-      <c r="B108" s="108"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="110"/>
-      <c r="E108" s="110"/>
+      <c r="A108" s="99"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
       <c r="F108" s="49">
         <v>7</v>
       </c>
       <c r="G108" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I108" s="59"/>
-      <c r="J108" s="99"/>
+      <c r="J108" s="110"/>
     </row>
     <row r="109" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="106"/>
-      <c r="B109" s="108"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="110"/>
-      <c r="E109" s="110"/>
+      <c r="A109" s="99"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="100"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="101"/>
       <c r="F109" s="49">
         <v>8</v>
       </c>
       <c r="G109" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="J109" s="99"/>
+        <v>142</v>
+      </c>
+      <c r="J109" s="110"/>
     </row>
     <row r="110" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="106"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="110"/>
+      <c r="A110" s="99"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
       <c r="F110" s="49">
         <v>9</v>
       </c>
       <c r="G110" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="J110" s="99"/>
+        <v>112</v>
+      </c>
+      <c r="J110" s="110"/>
     </row>
     <row r="111" spans="1:10" s="26" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="107"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
+      <c r="A111" s="106"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
       <c r="F111" s="54">
         <v>10</v>
       </c>
       <c r="G111" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H111" s="55"/>
       <c r="I111" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="J111" s="100"/>
+        <v>102</v>
+      </c>
+      <c r="J111" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E10:E18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="D28:D36"/>
-    <mergeCell ref="E28:E36"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="C45:C53"/>
-    <mergeCell ref="D45:D53"/>
-    <mergeCell ref="E45:E53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="E61:E66"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="D81:D87"/>
-    <mergeCell ref="E81:E87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="E94:E101"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="J28:J36"/>
-    <mergeCell ref="J37:J44"/>
     <mergeCell ref="J75:J80"/>
     <mergeCell ref="J88:J93"/>
     <mergeCell ref="J94:J101"/>
@@ -4867,6 +4791,82 @@
     <mergeCell ref="C102:C111"/>
     <mergeCell ref="D102:D111"/>
     <mergeCell ref="E102:E111"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="J37:J44"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="D81:D87"/>
+    <mergeCell ref="E81:E87"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="C45:C53"/>
+    <mergeCell ref="D45:D53"/>
+    <mergeCell ref="E45:E53"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="D28:D36"/>
+    <mergeCell ref="E28:E36"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
